--- a/학습자료/단답형/영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/영어_유의어_Day02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>질문2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대답</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
         </is>
       </c>
     </row>
@@ -476,6 +481,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>reputable*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>prestigious*</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>creditable</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>respectable</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>venerable</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>confident*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>assured</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>assertive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>sanguine</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>buoyant</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +751,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>line up*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +778,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>arrange</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -740,6 +805,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,6 +832,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +859,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>align</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,6 +886,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>give out*</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>hand out</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>give away</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>deal out</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +994,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>serve out</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +1021,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>carry on*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -938,6 +1048,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>keep on</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -960,6 +1075,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>go on</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -982,6 +1102,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stick at</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1004,6 +1129,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1026,6 +1156,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>break out*</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1048,6 +1183,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>burst into</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1070,6 +1210,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>rush into</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1092,6 +1237,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>invade</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1114,6 +1264,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>trespass</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1291,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gratification*</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1318,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>satisfaction*</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1345,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>contentment</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1372,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>euphoria</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1399,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>delight</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1246,6 +1426,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>liveliness*</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1268,6 +1453,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1290,6 +1480,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sparkle</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1312,6 +1507,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>vivacity</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1334,6 +1534,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>vigor</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1356,6 +1561,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>confidence*</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1378,6 +1588,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>faith</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1400,6 +1615,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>credence</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1422,6 +1642,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>reliance</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1444,6 +1669,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>conviction</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1466,6 +1696,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>tranquility*</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1488,6 +1723,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>silence</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1510,6 +1750,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>quiet</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1532,6 +1777,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>serenity</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1552,6 +1802,11 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>Day02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>composure</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/영어_유의어_Day02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>질문2</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,17 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>날짜</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>질문</t>
         </is>
       </c>
     </row>
@@ -473,17 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>reputable*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -500,17 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>prestigious*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -527,17 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>creditable</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -554,17 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>respectable</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -581,17 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>venerable</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -608,17 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>confident*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -635,17 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>assured</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -662,17 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>assertive</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -689,17 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>sanguine</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -716,17 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>buoyant</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -743,17 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>line up*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -770,17 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>arrange</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -797,17 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>array</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -824,17 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>sequence</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -851,17 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>align</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -878,17 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>give out*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -905,17 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>hand out</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -932,17 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>give away</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -959,17 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>deal out</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -986,17 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>serve out</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1013,17 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>carry on*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1040,17 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>keep on</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1067,17 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>go on</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1094,17 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>stick at</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1121,17 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>continue</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1148,17 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>break out*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1175,17 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>burst into</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1202,17 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>rush into</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1229,17 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>invade</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1256,17 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>trespass</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1283,17 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>gratification*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1310,17 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>satisfaction*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1337,17 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>contentment</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>euphoria</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>delight</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>liveliness*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>spring</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sparkle</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>vivacity</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>vigor</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>confidence*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>faith</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>credence</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>reliance</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>conviction</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1688,17 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>tranquility*</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>silence</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1742,17 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>quiet</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>serenity</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Day02</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>composure</t>
+          <t>Day02</t>
         </is>
       </c>
     </row>
